--- a/aufgaben.xlsx
+++ b/aufgaben.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426151B-0BEB-4CDE-85B7-E35B85BFB233}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19417E3D-E15E-4933-91C1-0AF16DCD5655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28440" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24840" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Gerrit</t>
+  </si>
+  <si>
+    <t>Klärung, wie Prozess vorher aussah und nachher aussehen soll</t>
   </si>
 </sst>
 </file>
@@ -615,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,10 +753,10 @@
         <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -996,7 +1002,7 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>9</v>
@@ -1020,7 +1026,7 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>16</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>14</v>
@@ -1164,7 +1170,7 @@
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>21</v>
@@ -1188,7 +1194,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>23</v>

--- a/aufgaben.xlsx
+++ b/aufgaben.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19417E3D-E15E-4933-91C1-0AF16DCD5655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA32CFC-1DA0-4A9F-9F0F-5597A0290CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24840" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
 Welche Ergebnisse werden wann benötigt?</t>
   </si>
   <si>
-    <t>Github-Repo anlegen, Dateistruktur verwalten</t>
-  </si>
-  <si>
     <t>Gemeinsames Repository</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Klärung, wie Prozess vorher aussah und nachher aussehen soll</t>
+  </si>
+  <si>
+    <t>Github-Repo anlegen, Dateistruktur verwalten, Template für finales Dokument erstellen</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,19 +640,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -720,10 +720,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>29</v>
@@ -744,19 +744,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -768,16 +768,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -795,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>29</v>
@@ -816,16 +816,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -840,16 +840,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>35</v>
@@ -864,16 +864,16 @@
         <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>36</v>
@@ -888,16 +888,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>36</v>
@@ -912,16 +912,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -936,16 +936,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>36</v>
@@ -960,16 +960,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
@@ -984,16 +984,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>36</v>
@@ -1008,16 +1008,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -1032,16 +1032,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>36</v>
@@ -1056,16 +1056,16 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>36</v>
@@ -1080,16 +1080,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>36</v>
@@ -1104,16 +1104,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -1128,16 +1128,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>36</v>
@@ -1152,16 +1152,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>36</v>
@@ -1176,16 +1176,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>36</v>
@@ -1200,16 +1200,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>

--- a/aufgaben.xlsx
+++ b/aufgaben.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA32CFC-1DA0-4A9F-9F0F-5597A0290CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235878E9-03A1-4789-AF86-D8D3C1A77025}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24840" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$24</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -623,22 +626,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="27.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
@@ -664,7 +667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -688,7 +691,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -712,7 +715,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -736,7 +739,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -760,7 +763,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -784,7 +787,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -808,7 +811,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -832,7 +835,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -856,7 +859,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -880,7 +883,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -904,7 +907,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -928,7 +931,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -952,7 +955,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -976,7 +979,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -1000,7 +1003,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -1024,7 +1027,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>6</v>
       </c>
@@ -1048,7 +1051,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1072,7 +1075,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -1096,7 +1099,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -1120,7 +1123,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -1144,7 +1147,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -1168,7 +1171,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>10</v>
       </c>
@@ -1192,7 +1195,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -1217,6 +1220,7 @@
       <c r="H24" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H24" xr:uid="{0015004A-6DBD-4266-BFB4-83B5C1B94AED}"/>
   <sortState ref="A2:G24">
     <sortCondition ref="A2"/>
   </sortState>

--- a/aufgaben.xlsx
+++ b/aufgaben.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235878E9-03A1-4789-AF86-D8D3C1A77025}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF2523-A2C7-438A-8031-6B87F5921019}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -276,6 +277,24 @@
   </si>
   <si>
     <t>Github-Repo anlegen, Dateistruktur verwalten, Template für finales Dokument erstellen</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Rammstein</t>
+  </si>
+  <si>
+    <t>In Bearbeitung</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
   </si>
 </sst>
 </file>
@@ -346,8 +365,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -622,11 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,10 +684,13 @@
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
@@ -663,11 +712,17 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -689,9 +744,10 @@
       <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -713,9 +769,10 @@
       <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -737,9 +794,10 @@
       <c r="G4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -761,9 +819,10 @@
       <c r="G5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -785,9 +844,10 @@
       <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -809,9 +869,10 @@
       <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -833,9 +894,10 @@
       <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -857,9 +919,10 @@
       <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -881,9 +944,10 @@
       <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -905,9 +969,10 @@
       <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -929,9 +994,10 @@
       <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -953,9 +1019,10 @@
       <c r="G13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -977,9 +1044,10 @@
       <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -1001,9 +1069,10 @@
       <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -1025,9 +1094,10 @@
       <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>6</v>
       </c>
@@ -1049,9 +1119,10 @@
       <c r="G17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1073,9 +1144,10 @@
       <c r="G18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -1097,9 +1169,10 @@
       <c r="G19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -1121,9 +1194,10 @@
       <c r="G20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -1145,9 +1219,10 @@
       <c r="G21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -1169,9 +1244,10 @@
       <c r="G22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>10</v>
       </c>
@@ -1193,9 +1269,10 @@
       <c r="G23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -1217,14 +1294,76 @@
       <c r="G24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H24" xr:uid="{0015004A-6DBD-4266-BFB4-83B5C1B94AED}"/>
+  <autoFilter ref="A1:I24" xr:uid="{DE01669C-36A2-4292-9249-707028B6265D}"/>
   <sortState ref="A2:G24">
     <sortCondition ref="A2"/>
   </sortState>
+  <conditionalFormatting sqref="H2:H100">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Nein"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"In Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Ja"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10FDE9F8-0849-4250-BAB4-94EA4C010CD3}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E7D2D4-5B3D-4FF4-9FD2-97895C4FDC8B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>